--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1956.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1956.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.003*"import" + 0.003*"export" + 0.002*"account" + 0.002*"exchange" + 0.002*"payment" + 0.002*"rate" + 0.002*"currency" + 0.002*"country" + 0.002*"bank" + 0.001*"may"</t>
-  </si>
-  <si>
-    <t>0.023*"exchange" + 0.022*"import" + 0.017*"export" + 0.017*"payment" + 0.015*"rate" + 0.015*"account" + 0.013*"per" + 0.013*"currency" + 0.012*"may" + 0.012*"bank"</t>
-  </si>
-  <si>
-    <t>0.009*"exchange" + 0.009*"import" + 0.008*"export" + 0.008*"country" + 0.007*"rate" + 0.006*"account" + 0.006*"per" + 0.006*"payment" + 0.005*"may" + 0.005*"license"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"import" + 0.001*"export" + 0.001*"payment" + 0.001*"may" + 0.001*"country" + 0.001*"account" + 0.001*"rate" + 0.001*"per" + 0.001*"currency"</t>
-  </si>
-  <si>
-    <t>0.004*"exchange" + 0.004*"import" + 0.003*"rate" + 0.003*"export" + 0.002*"may" + 0.002*"currency" + 0.002*"account" + 0.002*"country" + 0.002*"payment" + 0.002*"per"</t>
+    <t>0.043*"payment" + 0.041*"account" + 0.034*"rate" + 0.029*"exchange" + 0.023*"bank" + 0.022*"invisibles" + 0.022*"market" + 0.020*"may" + 0.019*"currency" + 0.019*"free"</t>
+  </si>
+  <si>
+    <t>0.086*"import" + 0.053*"export" + 0.038*"license" + 0.021*"require" + 0.021*"good" + 0.017*"proceeds" + 0.017*"subject" + 0.015*"country" + 0.014*"payment" + 0.012*"certain"</t>
+  </si>
+  <si>
+    <t>0.044*"exchange" + 0.040*"fund" + 0.037*"monetary" + 0.031*"capital" + 0.031*"international" + 0.025*"control" + 0.020*"area" + 0.020*"foreign" + 0.019*"sterling" + 0.017*"resident"</t>
+  </si>
+  <si>
+    <t>0.067*"per" + 0.034*"rate" + 0.034*"cent" + 0.029*"dollar" + 0.027*"u" + 0.020*"exchange" + 0.015*"may" + 0.012*"export" + 0.011*"official" + 0.010*"foreign"</t>
+  </si>
+  <si>
+    <t>0.035*"currency" + 0.026*"see" + 0.023*"section" + 0.022*"republic" + 0.022*"prescription" + 0.018*"franc" + 0.015*"security" + 0.013*"sell" + 0.013*"obligation" + 0.012*"germany"</t>
   </si>
 </sst>
 </file>
